--- a/templates/dataplant/Proteomics_computational_analysis.xlsx
+++ b/templates/dataplant/Proteomics_computational_analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -71,21 +71,18 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Computational Analysis</t>
-  </si>
-  <si>
     <t>Proteomics</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
     <t>Data Processing</t>
   </si>
   <si>
+    <t>Computation</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
@@ -95,12 +92,21 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C47925</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C61298</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000531</t>
+  </si>
+  <si>
     <t>Tags Term Source REF</t>
   </si>
   <si>
     <t>NCIT</t>
   </si>
   <si>
+    <t>MS</t>
+  </si>
+  <si>
     <t>AUTHORS</t>
   </si>
   <si>
@@ -180,9 +186,6 @@
   </si>
   <si>
     <t>SCIEX TOF/TOF Series Explorer Software</t>
-  </si>
-  <si>
-    <t>MS</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/MS_1001483</t>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -728,7 +731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -744,96 +747,105 @@
       <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -849,247 +861,247 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/Proteomics_computational_analysis.xlsx
+++ b/templates/dataplant/Proteomics_computational_analysis.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142D00BC-120D-4546-A429-908D66D691DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="4COM02_ProteomicsDataProcessing" state="visible" r:id="rId5"/>
+    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
+    <sheet name="4COM02_ProteomicsDataProcessing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -195,91 +199,19 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/MS_1000551</t>
-  </si>
-  <si>
-    <t>6300 Series Ion Trap Data Analysis Software</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000688</t>
-  </si>
-  <si>
-    <t>ChromaTOF software</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1001799</t>
-  </si>
-  <si>
-    <t>BioAnalyst</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000667</t>
-  </si>
-  <si>
-    <t>Comet</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1002251</t>
-  </si>
-  <si>
-    <t>BioTools</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000707</t>
-  </si>
-  <si>
-    <t>ChromaTOF HRT software</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1001877</t>
-  </si>
-  <si>
-    <t>Compass</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000712</t>
-  </si>
-  <si>
-    <t>Bioworks</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000533</t>
-  </si>
-  <si>
-    <t>Xcalibur</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000532</t>
-  </si>
-  <si>
-    <t>CAMERA</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1002871</t>
-  </si>
-  <si>
-    <t>apexControl</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000706</t>
-  </si>
-  <si>
-    <t>Data Explorer</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000536</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -306,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -322,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:K7" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:K7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:K2">
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -337,17 +269,17 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [acquisition software]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (MS:1001455)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (MS:1001455)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [analysis software]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (MS:1001456)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (MS:1001456)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [data processing software]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (MS:1001457)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (MS:1001457)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Output [Derived Data File]" totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parameter [acquisition software]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (MS:1001455)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (MS:1001455)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter [analysis software]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (MS:1001456)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (MS:1001456)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter [data processing software]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (MS:1001457)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (MS:1001457)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Output [Derived Data File]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -649,16 +581,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -666,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -674,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -682,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -690,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -698,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -706,32 +641,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -748,7 +683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -765,7 +700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -782,12 +717,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -795,7 +730,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -803,63 +738,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -894,7 +834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -929,184 +869,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/templates/dataplant/Proteomics_computational_analysis.xlsx
+++ b/templates/dataplant/Proteomics_computational_analysis.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142D00BC-120D-4546-A429-908D66D691DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
-    <sheet name="4COM02_ProteomicsDataProcessing" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="4COM02_ProteomicsDataProcessing" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -36,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.6</t>
+    <t>1.1.7</t>
   </si>
   <si>
     <t>Description</t>
@@ -156,7 +152,7 @@
     <t>Input [Source Name]</t>
   </si>
   <si>
-    <t>Parameter [acquisition software]</t>
+    <t>Component [acquisition software]</t>
   </si>
   <si>
     <t>Term Source REF (MS:1001455)</t>
@@ -165,7 +161,7 @@
     <t>Term Accession Number (MS:1001455)</t>
   </si>
   <si>
-    <t>Parameter [analysis software]</t>
+    <t>Component [analysis software]</t>
   </si>
   <si>
     <t>Term Source REF (MS:1001456)</t>
@@ -174,7 +170,7 @@
     <t>Term Accession Number (MS:1001456)</t>
   </si>
   <si>
-    <t>Parameter [data processing software]</t>
+    <t>Component [data processing software]</t>
   </si>
   <si>
     <t>Term Source REF (MS:1001457)</t>
@@ -183,7 +179,7 @@
     <t>Term Accession Number (MS:1001457)</t>
   </si>
   <si>
-    <t>Output [Derived Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
@@ -192,26 +188,26 @@
     <t>SCIEX TOF/TOF Series Explorer Software</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/MS_1001483</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1001483</t>
   </si>
   <si>
     <t>Analyst</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000551</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1000551</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -254,8 +250,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:K2">
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:K2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:K2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -269,17 +265,17 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parameter [acquisition software]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (MS:1001455)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (MS:1001455)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter [analysis software]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (MS:1001456)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (MS:1001456)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter [data processing software]"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (MS:1001457)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (MS:1001457)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Output [Derived Data File]"/>
+    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Component [acquisition software]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (MS:1001455)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (MS:1001455)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Component [analysis software]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (MS:1001456)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (MS:1001456)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Component [data processing software]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (MS:1001457)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (MS:1001457)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,19 +577,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -601,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -609,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -617,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -625,7 +618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -633,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -641,32 +634,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -683,7 +676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -700,7 +693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -717,12 +710,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -730,7 +723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -738,68 +731,63 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -834,7 +822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -871,7 +859,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
